--- a/SP500.xlsx
+++ b/SP500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheng\Desktop\BU\2019 summer\machine learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheng\Documents\GitHub\Monster-s-Grape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A02FBC1-FE1D-442D-BA58-7F7CCDB3A76D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9AD794-A862-4DC0-A6F3-A71E7BBCE1FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE8C09F6-E0E0-4B1C-9935-DB0196FC3CAB}"/>
   </bookViews>
@@ -964,9 +964,6 @@
     <t>Franklin Lakes, New Jersey</t>
   </si>
   <si>
-    <t>BRK.B</t>
-  </si>
-  <si>
     <t>Berkshire Hathaway</t>
   </si>
   <si>
@@ -1083,9 +1080,6 @@
   </si>
   <si>
     <t>Lake Success, New York</t>
-  </si>
-  <si>
-    <t>BF.B</t>
   </si>
   <si>
     <t>Brown-Forman Corp.</t>
@@ -4540,6 +4534,14 @@
   </si>
   <si>
     <t>Florham Park, New Jersey</t>
+  </si>
+  <si>
+    <t>BFB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRKB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5080,8 +5082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0671C5-6563-4F86-843E-FD1E1C7CFA04}">
   <dimension ref="A1:I507"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7173,10 +7175,10 @@
     </row>
     <row r="74" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>11</v>
@@ -7185,10 +7187,10 @@
         <v>57</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="G74" s="9">
         <v>40225</v>
@@ -7200,10 +7202,10 @@
     </row>
     <row r="75" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>11</v>
@@ -7212,10 +7214,10 @@
         <v>47</v>
       </c>
       <c r="E75" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="G75" s="9">
         <v>36340</v>
@@ -7227,10 +7229,10 @@
     </row>
     <row r="76" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>11</v>
@@ -7254,10 +7256,10 @@
     </row>
     <row r="77" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>11</v>
@@ -7281,10 +7283,10 @@
     </row>
     <row r="78" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>11</v>
@@ -7293,10 +7295,10 @@
         <v>47</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="G78" s="9">
         <v>31746</v>
@@ -7308,10 +7310,10 @@
     </row>
     <row r="79" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>11</v>
@@ -7335,10 +7337,10 @@
     </row>
     <row r="80" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>11</v>
@@ -7350,7 +7352,7 @@
         <v>126</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G80" s="9">
         <v>40123</v>
@@ -7362,10 +7364,10 @@
     </row>
     <row r="81" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>11</v>
@@ -7377,7 +7379,7 @@
         <v>213</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G81" s="9">
         <v>40896</v>
@@ -7389,10 +7391,10 @@
     </row>
     <row r="82" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>11</v>
@@ -7416,10 +7418,10 @@
     </row>
     <row r="83" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>11</v>
@@ -7431,7 +7433,7 @@
         <v>18</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G83" s="9">
         <v>34754</v>
@@ -7443,10 +7445,10 @@
     </row>
     <row r="84" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>11</v>
@@ -7470,10 +7472,10 @@
     </row>
     <row r="85" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>11</v>
@@ -7497,10 +7499,10 @@
     </row>
     <row r="86" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>11</v>
@@ -7512,7 +7514,7 @@
         <v>103</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G86" s="9">
         <v>43269</v>
@@ -7526,10 +7528,10 @@
     </row>
     <row r="87" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>312</v>
+        <v>1424</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>11</v>
@@ -7538,10 +7540,10 @@
         <v>121</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G87" s="9">
         <v>30255</v>
@@ -7553,10 +7555,10 @@
     </row>
     <row r="88" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>11</v>
@@ -7565,10 +7567,10 @@
         <v>12</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G88" s="9">
         <v>39143</v>
@@ -7580,10 +7582,10 @@
     </row>
     <row r="89" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>11</v>
@@ -7607,10 +7609,10 @@
     </row>
     <row r="90" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>11</v>
@@ -7634,10 +7636,10 @@
     </row>
     <row r="91" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>11</v>
@@ -7646,10 +7648,10 @@
         <v>121</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
@@ -7661,10 +7663,10 @@
     </row>
     <row r="92" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>11</v>
@@ -7676,7 +7678,7 @@
         <v>143</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G92" s="9">
         <v>35977</v>
@@ -7690,10 +7692,10 @@
     </row>
     <row r="93" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>11</v>
@@ -7702,7 +7704,7 @@
         <v>47</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>144</v>
@@ -7717,10 +7719,10 @@
     </row>
     <row r="94" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>11</v>
@@ -7732,7 +7734,7 @@
         <v>159</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G94" s="9">
         <v>35577</v>
@@ -7744,10 +7746,10 @@
     </row>
     <row r="95" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>11</v>
@@ -7771,10 +7773,10 @@
     </row>
     <row r="96" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>11</v>
@@ -7783,10 +7785,10 @@
         <v>47</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G96" s="9">
         <v>36151</v>
@@ -7798,10 +7800,10 @@
     </row>
     <row r="97" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>11</v>
@@ -7810,7 +7812,7 @@
         <v>12</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>268</v>
@@ -7825,10 +7827,10 @@
     </row>
     <row r="98" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>11</v>
@@ -7837,7 +7839,7 @@
         <v>57</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>218</v>
@@ -7852,10 +7854,10 @@
     </row>
     <row r="99" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>11</v>
@@ -7864,10 +7866,10 @@
         <v>86</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G99" s="9">
         <v>39031</v>
@@ -7879,10 +7881,10 @@
     </row>
     <row r="100" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>11</v>
@@ -7891,7 +7893,7 @@
         <v>34</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>144</v>
@@ -7908,10 +7910,10 @@
     </row>
     <row r="101" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>11</v>
@@ -7923,7 +7925,7 @@
         <v>82</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G101" s="9">
         <v>43458</v>
@@ -7935,10 +7937,10 @@
     </row>
     <row r="102" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>11</v>
@@ -7950,7 +7952,7 @@
         <v>91</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G102" s="9">
         <v>39027</v>
@@ -7962,10 +7964,10 @@
     </row>
     <row r="103" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -7977,7 +7979,7 @@
         <v>185</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G103" s="9">
         <v>42459</v>
@@ -7989,10 +7991,10 @@
     </row>
     <row r="104" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>11</v>
@@ -8016,10 +8018,10 @@
     </row>
     <row r="105" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -8031,7 +8033,7 @@
         <v>237</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G105" s="9">
         <v>36244</v>
@@ -8043,10 +8045,10 @@
     </row>
     <row r="106" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>11</v>
@@ -8055,10 +8057,10 @@
         <v>17</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G106" s="9">
         <v>40298</v>
@@ -8070,10 +8072,10 @@
     </row>
     <row r="107" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>11</v>
@@ -8082,7 +8084,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>268</v>
@@ -8097,10 +8099,10 @@
     </row>
     <row r="108" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>11</v>
@@ -8109,10 +8111,10 @@
         <v>57</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G108" s="9">
         <v>35583</v>
@@ -8124,10 +8126,10 @@
     </row>
     <row r="109" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>11</v>
@@ -8136,10 +8138,10 @@
         <v>34</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G109" s="9">
         <v>42621</v>
@@ -8151,10 +8153,10 @@
     </row>
     <row r="110" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>11</v>
@@ -8163,10 +8165,10 @@
         <v>174</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="7">
@@ -8178,10 +8180,10 @@
     </row>
     <row r="111" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>11</v>
@@ -8190,10 +8192,10 @@
         <v>47</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G111" s="9">
         <v>40661</v>
@@ -8205,10 +8207,10 @@
     </row>
     <row r="112" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>11</v>
@@ -8220,7 +8222,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G112" s="9">
         <v>40374</v>
@@ -8232,10 +8234,10 @@
     </row>
     <row r="113" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>11</v>
@@ -8244,10 +8246,10 @@
         <v>121</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G113" s="9">
         <v>42367</v>
@@ -8259,10 +8261,10 @@
     </row>
     <row r="114" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>11</v>
@@ -8274,7 +8276,7 @@
         <v>185</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G114" s="9">
         <v>27941</v>
@@ -8286,10 +8288,10 @@
     </row>
     <row r="115" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>11</v>
@@ -8313,10 +8315,10 @@
     </row>
     <row r="116" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>11</v>
@@ -8328,7 +8330,7 @@
         <v>111</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G116" s="9">
         <v>35782</v>
@@ -8340,10 +8342,10 @@
     </row>
     <row r="117" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>11</v>
@@ -8352,10 +8354,10 @@
         <v>12</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G117" s="9">
         <v>36951</v>
@@ -8367,10 +8369,10 @@
     </row>
     <row r="118" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>11</v>
@@ -8394,10 +8396,10 @@
     </row>
     <row r="119" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>11</v>
@@ -8421,10 +8423,10 @@
     </row>
     <row r="120" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>11</v>
@@ -8436,7 +8438,7 @@
         <v>271</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G120" s="9">
         <v>42398</v>
@@ -8448,10 +8450,10 @@
     </row>
     <row r="121" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>11</v>
@@ -8460,10 +8462,10 @@
         <v>29</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G121" s="9">
         <v>36495</v>
@@ -8475,10 +8477,10 @@
     </row>
     <row r="122" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>11</v>
@@ -8487,10 +8489,10 @@
         <v>121</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G122" s="9">
         <v>25293</v>
@@ -8504,10 +8506,10 @@
     </row>
     <row r="123" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>11</v>
@@ -8516,7 +8518,7 @@
         <v>57</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>218</v>
@@ -8531,10 +8533,10 @@
     </row>
     <row r="124" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>11</v>
@@ -8546,7 +8548,7 @@
         <v>133</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G124" s="9">
         <v>36283</v>
@@ -8558,10 +8560,10 @@
     </row>
     <row r="125" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>11</v>
@@ -8570,10 +8572,10 @@
         <v>121</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="7">
@@ -8585,10 +8587,10 @@
     </row>
     <row r="126" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>11</v>
@@ -8600,7 +8602,7 @@
         <v>30</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G126" s="9">
         <v>39038</v>
@@ -8612,10 +8614,10 @@
     </row>
     <row r="127" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>11</v>
@@ -8624,7 +8626,7 @@
         <v>121</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>144</v>
@@ -8639,10 +8641,10 @@
     </row>
     <row r="128" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>11</v>
@@ -8651,10 +8653,10 @@
         <v>34</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G128" s="9">
         <v>42265</v>
@@ -8666,10 +8668,10 @@
     </row>
     <row r="129" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>11</v>
@@ -8693,10 +8695,10 @@
     </row>
     <row r="130" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>11</v>
@@ -8705,7 +8707,7 @@
         <v>121</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>218</v>
@@ -8720,10 +8722,10 @@
     </row>
     <row r="131" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>11</v>
@@ -8735,7 +8737,7 @@
         <v>175</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G131" s="9">
         <v>42422</v>
@@ -8747,10 +8749,10 @@
     </row>
     <row r="132" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>11</v>
@@ -8774,10 +8776,10 @@
     </row>
     <row r="133" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>11</v>
@@ -8801,10 +8803,10 @@
     </row>
     <row r="134" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>11</v>
@@ -8813,10 +8815,10 @@
         <v>121</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G134" s="9">
         <v>38534</v>
@@ -8828,10 +8830,10 @@
     </row>
     <row r="135" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>11</v>
@@ -8843,7 +8845,7 @@
         <v>95</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G135" s="9">
         <v>42636</v>
@@ -8855,10 +8857,10 @@
     </row>
     <row r="136" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>11</v>
@@ -8867,7 +8869,7 @@
         <v>12</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>234</v>
@@ -8882,10 +8884,10 @@
     </row>
     <row r="137" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>11</v>
@@ -8897,7 +8899,7 @@
         <v>170</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="7">
@@ -8909,10 +8911,10 @@
     </row>
     <row r="138" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>11</v>
@@ -8921,10 +8923,10 @@
         <v>69</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G138" s="9">
         <v>43619</v>
@@ -8938,10 +8940,10 @@
     </row>
     <row r="139" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>11</v>
@@ -8950,10 +8952,10 @@
         <v>121</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G139" s="9">
         <v>34243</v>
@@ -8965,10 +8967,10 @@
     </row>
     <row r="140" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>11</v>
@@ -8977,7 +8979,7 @@
         <v>121</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>144</v>
@@ -8992,10 +8994,10 @@
     </row>
     <row r="141" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>11</v>
@@ -9019,10 +9021,10 @@
     </row>
     <row r="142" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>11</v>
@@ -9031,10 +9033,10 @@
         <v>12</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G142" s="9">
         <v>24745</v>
@@ -9048,10 +9050,10 @@
     </row>
     <row r="143" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>11</v>
@@ -9060,10 +9062,10 @@
         <v>12</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G143" s="9">
         <v>23832</v>
@@ -9077,10 +9079,10 @@
     </row>
     <row r="144" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>11</v>
@@ -9089,10 +9091,10 @@
         <v>17</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="7">
@@ -9104,10 +9106,10 @@
     </row>
     <row r="145" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>11</v>
@@ -9116,7 +9118,7 @@
         <v>47</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>137</v>
@@ -9131,10 +9133,10 @@
     </row>
     <row r="146" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>11</v>
@@ -9146,7 +9148,7 @@
         <v>18</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="7">
@@ -9158,10 +9160,10 @@
     </row>
     <row r="147" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>11</v>
@@ -9170,10 +9172,10 @@
         <v>47</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="7">
@@ -9185,10 +9187,10 @@
     </row>
     <row r="148" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>11</v>
@@ -9197,7 +9199,7 @@
         <v>17</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>202</v>
@@ -9212,10 +9214,10 @@
     </row>
     <row r="149" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>11</v>
@@ -9224,10 +9226,10 @@
         <v>12</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="7">
@@ -9239,10 +9241,10 @@
     </row>
     <row r="150" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>11</v>
@@ -9254,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G150" s="9">
         <v>41528</v>
@@ -9266,10 +9268,10 @@
     </row>
     <row r="151" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>11</v>
@@ -9281,7 +9283,7 @@
         <v>95</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G151" s="9">
         <v>39766</v>
@@ -9293,10 +9295,10 @@
     </row>
     <row r="152" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>11</v>
@@ -9308,7 +9310,7 @@
         <v>175</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G152" s="9">
         <v>36768</v>
@@ -9320,10 +9322,10 @@
     </row>
     <row r="153" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>11</v>
@@ -9335,7 +9337,7 @@
         <v>175</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G153" s="9">
         <v>43437</v>
@@ -9349,10 +9351,10 @@
     </row>
     <row r="154" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>11</v>
@@ -9364,7 +9366,7 @@
         <v>149</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G154" s="9">
         <v>42508</v>
@@ -9376,10 +9378,10 @@
     </row>
     <row r="155" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>11</v>
@@ -9391,7 +9393,7 @@
         <v>143</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G155" s="9">
         <v>39265</v>
@@ -9403,10 +9405,10 @@
     </row>
     <row r="156" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>11</v>
@@ -9415,10 +9417,10 @@
         <v>34</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G156" s="9">
         <v>40238</v>
@@ -9430,10 +9432,10 @@
     </row>
     <row r="157" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>11</v>
@@ -9442,10 +9444,10 @@
         <v>34</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G157" s="9">
         <v>41858</v>
@@ -9457,10 +9459,10 @@
     </row>
     <row r="158" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>11</v>
@@ -9469,10 +9471,10 @@
         <v>34</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G158" s="9">
         <v>42807</v>
@@ -9484,10 +9486,10 @@
     </row>
     <row r="159" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>11</v>
@@ -9496,10 +9498,10 @@
         <v>47</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G159" s="9">
         <v>41246</v>
@@ -9511,10 +9513,10 @@
     </row>
     <row r="160" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>11</v>
@@ -9523,10 +9525,10 @@
         <v>47</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G160" s="9">
         <v>40896</v>
@@ -9538,10 +9540,10 @@
     </row>
     <row r="161" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>11</v>
@@ -9565,10 +9567,10 @@
     </row>
     <row r="162" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>11</v>
@@ -9577,10 +9579,10 @@
         <v>12</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G162" s="9">
         <v>31351</v>
@@ -9592,10 +9594,10 @@
     </row>
     <row r="163" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>11</v>
@@ -9604,10 +9606,10 @@
         <v>69</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G163" s="9">
         <v>43556</v>
@@ -9621,10 +9623,10 @@
     </row>
     <row r="164" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>11</v>
@@ -9636,7 +9638,7 @@
         <v>133</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="7">
@@ -9648,10 +9650,10 @@
     </row>
     <row r="165" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>11</v>
@@ -9675,10 +9677,10 @@
     </row>
     <row r="166" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>11</v>
@@ -9687,7 +9689,7 @@
         <v>86</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>186</v>
@@ -9702,10 +9704,10 @@
     </row>
     <row r="167" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>11</v>
@@ -9717,7 +9719,7 @@
         <v>82</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="7">
@@ -9729,10 +9731,10 @@
     </row>
     <row r="168" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>11</v>
@@ -9744,7 +9746,7 @@
         <v>30</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" s="9">
         <v>42829</v>
@@ -9756,10 +9758,10 @@
     </row>
     <row r="169" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>11</v>
@@ -9768,7 +9770,7 @@
         <v>57</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>144</v>
@@ -9783,10 +9785,10 @@
     </row>
     <row r="170" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>11</v>
@@ -9795,10 +9797,10 @@
         <v>69</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G170" s="9">
         <v>34335</v>
@@ -9810,10 +9812,10 @@
     </row>
     <row r="171" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>11</v>
@@ -9837,10 +9839,10 @@
     </row>
     <row r="172" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>11</v>
@@ -9864,10 +9866,10 @@
     </row>
     <row r="173" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>11</v>
@@ -9891,10 +9893,10 @@
     </row>
     <row r="174" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>11</v>
@@ -9906,7 +9908,7 @@
         <v>107</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="7">
@@ -9918,10 +9920,10 @@
     </row>
     <row r="175" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>11</v>
@@ -9933,7 +9935,7 @@
         <v>18</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G175" s="9">
         <v>40634</v>
@@ -9945,10 +9947,10 @@
     </row>
     <row r="176" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>11</v>
@@ -9960,7 +9962,7 @@
         <v>35</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G176" s="9">
         <v>37459</v>
@@ -9972,10 +9974,10 @@
     </row>
     <row r="177" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>11</v>
@@ -9987,7 +9989,7 @@
         <v>163</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G177" s="9">
         <v>23832</v>
@@ -10001,10 +10003,10 @@
     </row>
     <row r="178" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>11</v>
@@ -10016,7 +10018,7 @@
         <v>107</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="7">
@@ -10028,10 +10030,10 @@
     </row>
     <row r="179" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>11</v>
@@ -10055,10 +10057,10 @@
     </row>
     <row r="180" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>11</v>
@@ -10067,10 +10069,10 @@
         <v>12</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G180" s="9">
         <v>35600</v>
@@ -10082,10 +10084,10 @@
     </row>
     <row r="181" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>11</v>
@@ -10097,7 +10099,7 @@
         <v>149</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G181" s="9">
         <v>42083</v>
@@ -10109,10 +10111,10 @@
     </row>
     <row r="182" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>11</v>
@@ -10136,10 +10138,10 @@
     </row>
     <row r="183" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>11</v>
@@ -10151,7 +10153,7 @@
         <v>201</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G183" s="9">
         <v>41731</v>
@@ -10163,10 +10165,10 @@
     </row>
     <row r="184" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>11</v>
@@ -10175,7 +10177,7 @@
         <v>121</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>144</v>
@@ -10190,10 +10192,10 @@
     </row>
     <row r="185" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>11</v>
@@ -10205,7 +10207,7 @@
         <v>107</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G185" s="9">
         <v>43256</v>
@@ -10219,10 +10221,10 @@
     </row>
     <row r="186" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>11</v>
@@ -10234,7 +10236,7 @@
         <v>133</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G186" s="8"/>
       <c r="H186" s="7">
@@ -10246,10 +10248,10 @@
     </row>
     <row r="187" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>11</v>
@@ -10258,10 +10260,10 @@
         <v>57</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G187" s="9">
         <v>42905</v>
@@ -10273,10 +10275,10 @@
     </row>
     <row r="188" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>11</v>
@@ -10300,10 +10302,10 @@
     </row>
     <row r="189" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>11</v>
@@ -10315,7 +10317,7 @@
         <v>126</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G189" s="9">
         <v>39357</v>
@@ -10327,10 +10329,10 @@
     </row>
     <row r="190" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>11</v>
@@ -10339,7 +10341,7 @@
         <v>12</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>79</v>
@@ -10354,10 +10356,10 @@
     </row>
     <row r="191" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>11</v>
@@ -10369,7 +10371,7 @@
         <v>149</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G191" s="9">
         <v>42388</v>
@@ -10381,10 +10383,10 @@
     </row>
     <row r="192" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>11</v>
@@ -10393,10 +10395,10 @@
         <v>174</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="7">
@@ -10408,10 +10410,10 @@
     </row>
     <row r="193" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>11</v>
@@ -10437,10 +10439,10 @@
     </row>
     <row r="194" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>11</v>
@@ -10452,7 +10454,7 @@
         <v>115</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G194" s="9">
         <v>41631</v>
@@ -10464,10 +10466,10 @@
     </row>
     <row r="195" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>11</v>
@@ -10479,7 +10481,7 @@
         <v>98</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G195" s="9">
         <v>40071</v>
@@ -10491,10 +10493,10 @@
     </row>
     <row r="196" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>11</v>
@@ -10503,10 +10505,10 @@
         <v>86</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G196" s="9">
         <v>42401</v>
@@ -10518,10 +10520,10 @@
     </row>
     <row r="197" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>11</v>
@@ -10530,7 +10532,7 @@
         <v>12</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>247</v>
@@ -10545,10 +10547,10 @@
     </row>
     <row r="198" spans="1:9" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>11</v>
@@ -10557,10 +10559,10 @@
         <v>29</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G198" s="9">
         <v>39031</v>
@@ -10572,10 +10574,10 @@
     </row>
     <row r="199" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>11</v>
@@ -10587,7 +10589,7 @@
         <v>271</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G199" s="8"/>
       <c r="H199" s="7">
@@ -10599,10 +10601,10 @@
     </row>
     <row r="200" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>11</v>
@@ -10614,7 +10616,7 @@
         <v>107</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G200" s="8"/>
       <c r="H200" s="7">
@@ -10626,10 +10628,10 @@
     </row>
     <row r="201" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>11</v>
@@ -10641,7 +10643,7 @@
         <v>271</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G201" s="9">
         <v>43467</v>
@@ -10655,10 +10657,10 @@
     </row>
     <row r="202" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>11</v>
@@ -10667,10 +10669,10 @@
         <v>29</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G202" s="9">
         <v>36983</v>
@@ -10682,10 +10684,10 @@
     </row>
     <row r="203" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>11</v>
@@ -10694,10 +10696,10 @@
         <v>29</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G203" s="9">
         <v>43271</v>
@@ -10711,10 +10713,10 @@
     </row>
     <row r="204" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>11</v>
@@ -10723,10 +10725,10 @@
         <v>29</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G204" s="9">
         <v>39815</v>
@@ -10738,10 +10740,10 @@
     </row>
     <row r="205" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>11</v>
@@ -10750,10 +10752,10 @@
         <v>12</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G205" s="9">
         <v>39723</v>
@@ -10765,10 +10767,10 @@
     </row>
     <row r="206" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>11</v>
@@ -10777,10 +10779,10 @@
         <v>69</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G206" s="9">
         <v>40044</v>
@@ -10792,10 +10794,10 @@
     </row>
     <row r="207" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>11</v>
@@ -10804,7 +10806,7 @@
         <v>47</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>144</v>
@@ -10819,10 +10821,10 @@
     </row>
     <row r="208" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>11</v>
@@ -10831,10 +10833,10 @@
         <v>47</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G208" s="8"/>
       <c r="H208" s="7">
@@ -10846,10 +10848,10 @@
     </row>
     <row r="209" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>11</v>
@@ -10858,7 +10860,7 @@
         <v>29</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>44</v>
@@ -10875,10 +10877,10 @@
     </row>
     <row r="210" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>11</v>
@@ -10887,10 +10889,10 @@
         <v>12</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G210" s="9">
         <v>42552</v>
@@ -10902,10 +10904,10 @@
     </row>
     <row r="211" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>11</v>
@@ -10929,10 +10931,10 @@
     </row>
     <row r="212" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>11</v>
@@ -10941,7 +10943,7 @@
         <v>34</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>144</v>
@@ -10956,10 +10958,10 @@
     </row>
     <row r="213" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>11</v>
@@ -10968,7 +10970,7 @@
         <v>34</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>144</v>
@@ -10983,10 +10985,10 @@
     </row>
     <row r="214" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>11</v>
@@ -10998,7 +11000,7 @@
         <v>58</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G214" s="8"/>
       <c r="H214" s="7">
@@ -11010,10 +11012,10 @@
     </row>
     <row r="215" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>11</v>
@@ -11022,10 +11024,10 @@
         <v>69</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G215" s="8"/>
       <c r="H215" s="7">
@@ -11037,10 +11039,10 @@
     </row>
     <row r="216" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>11</v>
@@ -11049,10 +11051,10 @@
         <v>47</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G216" s="9">
         <v>31655</v>
@@ -11064,10 +11066,10 @@
     </row>
     <row r="217" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>11</v>
@@ -11076,10 +11078,10 @@
         <v>47</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G217" s="9">
         <v>41255</v>
@@ -11091,10 +11093,10 @@
     </row>
     <row r="218" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>11</v>
@@ -11106,7 +11108,7 @@
         <v>30</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G218" s="9">
         <v>42830</v>
@@ -11118,10 +11120,10 @@
     </row>
     <row r="219" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>11</v>
@@ -11133,7 +11135,7 @@
         <v>221</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G219" s="8"/>
       <c r="H219" s="7">
@@ -11145,10 +11147,10 @@
     </row>
     <row r="220" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>11</v>
@@ -11172,10 +11174,10 @@
     </row>
     <row r="221" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>11</v>
@@ -11184,10 +11186,10 @@
         <v>121</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G221" s="9">
         <v>25293</v>
@@ -11201,10 +11203,10 @@
     </row>
     <row r="222" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>11</v>
@@ -11213,10 +11215,10 @@
         <v>47</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G222" s="9">
         <v>41431</v>
@@ -11228,10 +11230,10 @@
     </row>
     <row r="223" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>11</v>
@@ -11243,7 +11245,7 @@
         <v>246</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G223" s="9">
         <v>27029</v>
@@ -11257,10 +11259,10 @@
     </row>
     <row r="224" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>11</v>
@@ -11272,7 +11274,7 @@
         <v>91</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G224" s="9">
         <v>38169</v>
@@ -11284,10 +11286,10 @@
     </row>
     <row r="225" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>11</v>
@@ -11299,7 +11301,7 @@
         <v>103</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" s="9">
         <v>42485</v>
@@ -11311,10 +11313,10 @@
     </row>
     <row r="226" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>11</v>
@@ -11323,7 +11325,7 @@
         <v>57</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>144</v>
@@ -11338,10 +11340,10 @@
     </row>
     <row r="227" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>11</v>
@@ -11350,10 +11352,10 @@
         <v>12</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G227" s="9">
         <v>29767</v>
@@ -11365,10 +11367,10 @@
     </row>
     <row r="228" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>11</v>
@@ -11392,10 +11394,10 @@
     </row>
     <row r="229" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>11</v>
@@ -11404,7 +11406,7 @@
         <v>47</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>272</v>
@@ -11419,10 +11421,10 @@
     </row>
     <row r="230" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>11</v>
@@ -11431,7 +11433,7 @@
         <v>47</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>195</v>
@@ -11446,10 +11448,10 @@
     </row>
     <row r="231" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>11</v>
@@ -11461,7 +11463,7 @@
         <v>111</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G231" s="8"/>
       <c r="H231" s="7">
@@ -11471,10 +11473,10 @@
     </row>
     <row r="232" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>11</v>
@@ -11483,10 +11485,10 @@
         <v>47</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G232" s="9">
         <v>30955</v>
@@ -11498,10 +11500,10 @@
     </row>
     <row r="233" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>11</v>
@@ -11510,10 +11512,10 @@
         <v>17</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G233" s="9">
         <v>42031</v>
@@ -11525,10 +11527,10 @@
     </row>
     <row r="234" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>11</v>
@@ -11537,10 +11539,10 @@
         <v>86</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G234" s="9">
         <v>39538</v>
@@ -11552,10 +11554,10 @@
     </row>
     <row r="235" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>11</v>
@@ -11564,10 +11566,10 @@
         <v>174</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G235" s="9">
         <v>40238</v>
@@ -11579,10 +11581,10 @@
     </row>
     <row r="236" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>11</v>
@@ -11594,7 +11596,7 @@
         <v>159</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G236" s="9">
         <v>42080</v>
@@ -11606,10 +11608,10 @@
     </row>
     <row r="237" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>11</v>
@@ -11618,10 +11620,10 @@
         <v>121</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G237" s="8"/>
       <c r="H237" s="7">
@@ -11633,10 +11635,10 @@
     </row>
     <row r="238" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>11</v>
@@ -11645,7 +11647,7 @@
         <v>174</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>144</v>
@@ -11660,10 +11662,10 @@
     </row>
     <row r="239" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>11</v>
@@ -11675,7 +11677,7 @@
         <v>206</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G239" s="9">
         <v>42310</v>
@@ -11687,10 +11689,10 @@
     </row>
     <row r="240" spans="1:9" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>11</v>
@@ -11699,10 +11701,10 @@
         <v>47</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G240" s="9">
         <v>42905</v>
@@ -11714,10 +11716,10 @@
     </row>
     <row r="241" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>11</v>
@@ -11726,7 +11728,7 @@
         <v>174</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>234</v>
@@ -11741,10 +11743,10 @@
     </row>
     <row r="242" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>11</v>
@@ -11756,7 +11758,7 @@
         <v>18</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G242" s="9">
         <v>42459</v>
@@ -11768,10 +11770,10 @@
     </row>
     <row r="243" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>11</v>
@@ -11780,10 +11782,10 @@
         <v>47</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G243" s="9">
         <v>32233</v>
@@ -11795,10 +11797,10 @@
     </row>
     <row r="244" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>11</v>
@@ -11810,7 +11812,7 @@
         <v>13</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G244" s="9">
         <v>23467</v>
@@ -11824,10 +11826,10 @@
     </row>
     <row r="245" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>11</v>
@@ -11836,10 +11838,10 @@
         <v>121</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G245" s="9">
         <v>39876</v>
@@ -11851,10 +11853,10 @@
     </row>
     <row r="246" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>11</v>
@@ -11863,10 +11865,10 @@
         <v>86</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G246" s="9">
         <v>39161</v>
@@ -11878,10 +11880,10 @@
     </row>
     <row r="247" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>11</v>
@@ -11893,7 +11895,7 @@
         <v>206</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G247" s="9">
         <v>27394</v>
@@ -11902,15 +11904,15 @@
         <v>47217</v>
       </c>
       <c r="I247" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>11</v>
@@ -11922,7 +11924,7 @@
         <v>185</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G248" s="8"/>
       <c r="H248" s="7">
@@ -11934,10 +11936,10 @@
     </row>
     <row r="249" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>11</v>
@@ -11961,10 +11963,10 @@
     </row>
     <row r="250" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>11</v>
@@ -11976,7 +11978,7 @@
         <v>221</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G250" s="9">
         <v>43103</v>
@@ -11988,10 +11990,10 @@
     </row>
     <row r="251" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>11</v>
@@ -12003,7 +12005,7 @@
         <v>18</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G251" s="9">
         <v>42740</v>
@@ -12015,10 +12017,10 @@
     </row>
     <row r="252" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>11</v>
@@ -12027,7 +12029,7 @@
         <v>12</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>191</v>
@@ -12042,10 +12044,10 @@
     </row>
     <row r="253" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>11</v>
@@ -12054,10 +12056,10 @@
         <v>12</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G253" s="9">
         <v>31471</v>
@@ -12069,10 +12071,10 @@
     </row>
     <row r="254" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>11</v>
@@ -12081,10 +12083,10 @@
         <v>17</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G254" s="9">
         <v>42327</v>
@@ -12096,10 +12098,10 @@
     </row>
     <row r="255" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>11</v>
@@ -12108,7 +12110,7 @@
         <v>12</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>31</v>
@@ -12123,10 +12125,10 @@
     </row>
     <row r="256" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>11</v>
@@ -12150,10 +12152,10 @@
     </row>
     <row r="257" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>11</v>
@@ -12162,10 +12164,10 @@
         <v>57</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G257" s="9">
         <v>39351</v>
@@ -12177,10 +12179,10 @@
     </row>
     <row r="258" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>11</v>
@@ -12192,7 +12194,7 @@
         <v>30</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G258" s="8"/>
       <c r="H258" s="7">
@@ -12204,10 +12206,10 @@
     </row>
     <row r="259" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>11</v>
@@ -12219,7 +12221,7 @@
         <v>91</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G259" s="9">
         <v>42794</v>
@@ -12231,10 +12233,10 @@
     </row>
     <row r="260" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>11</v>
@@ -12258,10 +12260,10 @@
     </row>
     <row r="261" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>11</v>
@@ -12270,7 +12272,7 @@
         <v>34</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F261" s="6" t="s">
         <v>144</v>
@@ -12285,10 +12287,10 @@
     </row>
     <row r="262" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>11</v>
@@ -12312,10 +12314,10 @@
     </row>
     <row r="263" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>11</v>
@@ -12324,7 +12326,7 @@
         <v>29</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>116</v>
@@ -12339,10 +12341,10 @@
     </row>
     <row r="264" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>11</v>
@@ -12366,10 +12368,10 @@
     </row>
     <row r="265" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>11</v>
@@ -12381,7 +12383,7 @@
         <v>58</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G265" s="9">
         <v>39681</v>
@@ -12393,10 +12395,10 @@
     </row>
     <row r="266" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>11</v>
@@ -12405,10 +12407,10 @@
         <v>29</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G266" s="9">
         <v>43166</v>
@@ -12420,10 +12422,10 @@
     </row>
     <row r="267" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>11</v>
@@ -12432,10 +12434,10 @@
         <v>17</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G267" s="9">
         <v>42976</v>
@@ -12447,10 +12449,10 @@
     </row>
     <row r="268" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>11</v>
@@ -12474,10 +12476,10 @@
     </row>
     <row r="269" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>11</v>
@@ -12489,7 +12491,7 @@
         <v>103</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G269" s="9">
         <v>43417</v>
@@ -12501,10 +12503,10 @@
     </row>
     <row r="270" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>11</v>
@@ -12513,7 +12515,7 @@
         <v>12</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F270" s="6" t="s">
         <v>88</v>
@@ -12528,10 +12530,10 @@
     </row>
     <row r="271" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>11</v>
@@ -12540,10 +12542,10 @@
         <v>12</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G271" s="9">
         <v>42186</v>
@@ -12555,10 +12557,10 @@
     </row>
     <row r="272" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>11</v>
@@ -12567,7 +12569,7 @@
         <v>57</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>144</v>
@@ -12582,10 +12584,10 @@
     </row>
     <row r="273" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>11</v>
@@ -12594,10 +12596,10 @@
         <v>121</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G273" s="9">
         <v>39758</v>
@@ -12609,10 +12611,10 @@
     </row>
     <row r="274" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>11</v>
@@ -12624,7 +12626,7 @@
         <v>22</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G274" s="9">
         <v>26845</v>
@@ -12638,10 +12640,10 @@
     </row>
     <row r="275" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>11</v>
@@ -12653,7 +12655,7 @@
         <v>98</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G275" s="9">
         <v>40417</v>
@@ -12665,10 +12667,10 @@
     </row>
     <row r="276" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>11</v>
@@ -12692,10 +12694,10 @@
     </row>
     <row r="277" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>11</v>
@@ -12719,10 +12721,10 @@
     </row>
     <row r="278" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>11</v>
@@ -12731,10 +12733,10 @@
         <v>12</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G278" s="9">
         <v>41418</v>
@@ -12746,10 +12748,10 @@
     </row>
     <row r="279" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>11</v>
@@ -12758,10 +12760,10 @@
         <v>121</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G279" s="8"/>
       <c r="H279" s="7">
@@ -12773,10 +12775,10 @@
     </row>
     <row r="280" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>11</v>
@@ -12788,7 +12790,7 @@
         <v>271</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G280" s="9">
         <v>34394</v>
@@ -12800,10 +12802,10 @@
     </row>
     <row r="281" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>11</v>
@@ -12812,10 +12814,10 @@
         <v>29</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G281" s="9">
         <v>43410</v>
@@ -12829,10 +12831,10 @@
     </row>
     <row r="282" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>11</v>
@@ -12841,10 +12843,10 @@
         <v>121</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G282" s="8"/>
       <c r="H282" s="7">
@@ -12856,10 +12858,10 @@
     </row>
     <row r="283" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>11</v>
@@ -12868,10 +12870,10 @@
         <v>86</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G283" s="9">
         <v>38811</v>
@@ -12883,10 +12885,10 @@
     </row>
     <row r="284" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>11</v>
@@ -12895,7 +12897,7 @@
         <v>174</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F284" s="6" t="s">
         <v>198</v>
@@ -12910,10 +12912,10 @@
     </row>
     <row r="285" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>11</v>
@@ -12925,22 +12927,22 @@
         <v>210</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G285" s="8"/>
       <c r="H285" s="7">
         <v>319201</v>
       </c>
       <c r="I285" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>11</v>
@@ -12949,10 +12951,10 @@
         <v>47</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G286" s="8"/>
       <c r="H286" s="7">
@@ -12964,10 +12966,10 @@
     </row>
     <row r="287" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>11</v>
@@ -12976,10 +12978,10 @@
         <v>121</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G287" s="9">
         <v>42191</v>
@@ -12991,10 +12993,10 @@
     </row>
     <row r="288" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>11</v>
@@ -13003,10 +13005,10 @@
         <v>121</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G288" s="8"/>
       <c r="H288" s="7">
@@ -13018,10 +13020,10 @@
     </row>
     <row r="289" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>11</v>
@@ -13030,7 +13032,7 @@
         <v>47</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F289" s="6" t="s">
         <v>140</v>
@@ -13045,10 +13047,10 @@
     </row>
     <row r="290" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>11</v>
@@ -13060,7 +13062,7 @@
         <v>221</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G290" s="8"/>
       <c r="H290" s="7">
@@ -13070,10 +13072,10 @@
     </row>
     <row r="291" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>11</v>
@@ -13082,10 +13084,10 @@
         <v>17</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G291" s="9">
         <v>38292</v>
@@ -13097,10 +13099,10 @@
     </row>
     <row r="292" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>11</v>
@@ -13112,7 +13114,7 @@
         <v>210</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G292" s="9">
         <v>41089</v>
@@ -13124,10 +13126,10 @@
     </row>
     <row r="293" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>11</v>
@@ -13136,10 +13138,10 @@
         <v>121</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G293" s="9">
         <v>43437</v>
@@ -13151,10 +13153,10 @@
     </row>
     <row r="294" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>11</v>
@@ -13163,10 +13165,10 @@
         <v>47</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G294" s="8"/>
       <c r="H294" s="7">
@@ -13178,10 +13180,10 @@
     </row>
     <row r="295" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>11</v>
@@ -13190,10 +13192,10 @@
         <v>47</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G295" s="9">
         <v>38629</v>
@@ -13205,10 +13207,10 @@
     </row>
     <row r="296" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>11</v>
@@ -13234,10 +13236,10 @@
     </row>
     <row r="297" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>11</v>
@@ -13249,7 +13251,7 @@
         <v>230</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G297" s="9">
         <v>27941</v>
@@ -13261,10 +13263,10 @@
     </row>
     <row r="298" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>11</v>
@@ -13276,7 +13278,7 @@
         <v>70</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G298" s="9">
         <v>33786</v>
@@ -13288,10 +13290,10 @@
     </row>
     <row r="299" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>11</v>
@@ -13300,7 +13302,7 @@
         <v>47</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F299" s="6" t="s">
         <v>218</v>
@@ -13315,10 +13317,10 @@
     </row>
     <row r="300" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>11</v>
@@ -13330,7 +13332,7 @@
         <v>221</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G300" s="9">
         <v>30894</v>
@@ -13342,10 +13344,10 @@
     </row>
     <row r="301" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>11</v>
@@ -13367,10 +13369,10 @@
     </row>
     <row r="302" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>11</v>
@@ -13379,10 +13381,10 @@
         <v>47</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G302" s="9">
         <v>30741</v>
@@ -13391,15 +13393,15 @@
         <v>60667</v>
       </c>
       <c r="I302" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>11</v>
@@ -13411,7 +13413,7 @@
         <v>82</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G303" s="9">
         <v>41157</v>
@@ -13423,10 +13425,10 @@
     </row>
     <row r="304" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>11</v>
@@ -13438,7 +13440,7 @@
         <v>271</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G304" s="8"/>
       <c r="H304" s="7">
@@ -13450,10 +13452,10 @@
     </row>
     <row r="305" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>11</v>
@@ -13462,7 +13464,7 @@
         <v>86</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F305" s="6" t="s">
         <v>36</v>
@@ -13477,10 +13479,10 @@
     </row>
     <row r="306" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>11</v>
@@ -13489,10 +13491,10 @@
         <v>47</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G306" s="8"/>
       <c r="H306" s="7">
@@ -13504,10 +13506,10 @@
     </row>
     <row r="307" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>11</v>
@@ -13531,10 +13533,10 @@
     </row>
     <row r="308" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>11</v>
@@ -13543,10 +13545,10 @@
         <v>174</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G308" s="9">
         <v>40725</v>
@@ -13558,10 +13560,10 @@
     </row>
     <row r="309" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>11</v>
@@ -13570,7 +13572,7 @@
         <v>57</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F309" s="6" t="s">
         <v>144</v>
@@ -13585,10 +13587,10 @@
     </row>
     <row r="310" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>11</v>
@@ -13597,10 +13599,10 @@
         <v>47</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G310" s="8"/>
       <c r="H310" s="7">
@@ -13612,10 +13614,10 @@
     </row>
     <row r="311" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>11</v>
@@ -13639,10 +13641,10 @@
     </row>
     <row r="312" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>11</v>
@@ -13651,7 +13653,7 @@
         <v>69</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F312" s="6" t="s">
         <v>49</v>
@@ -13666,10 +13668,10 @@
     </row>
     <row r="313" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>11</v>
@@ -13681,7 +13683,7 @@
         <v>98</v>
       </c>
       <c r="F313" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G313" s="9">
         <v>29767</v>
@@ -13693,10 +13695,10 @@
     </row>
     <row r="314" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>11</v>
@@ -13705,10 +13707,10 @@
         <v>29</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G314" s="9">
         <v>39647</v>
@@ -13720,10 +13722,10 @@
     </row>
     <row r="315" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>11</v>
@@ -13732,10 +13734,10 @@
         <v>121</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G315" s="8"/>
       <c r="H315" s="7">
@@ -13747,10 +13749,10 @@
     </row>
     <row r="316" spans="1:9" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>11</v>
@@ -13776,10 +13778,10 @@
     </row>
     <row r="317" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>11</v>
@@ -13788,7 +13790,7 @@
         <v>47</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F317" s="6" t="s">
         <v>218</v>
@@ -13805,10 +13807,10 @@
     </row>
     <row r="318" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>11</v>
@@ -13820,7 +13822,7 @@
         <v>159</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G318" s="8"/>
       <c r="H318" s="7">
@@ -13832,10 +13834,10 @@
     </row>
     <row r="319" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>11</v>
@@ -13847,7 +13849,7 @@
         <v>18</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G319" s="9">
         <v>31716</v>
@@ -13859,10 +13861,10 @@
     </row>
     <row r="320" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>11</v>
@@ -13874,7 +13876,7 @@
         <v>22</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G320" s="8"/>
       <c r="H320" s="7">
@@ -13886,10 +13888,10 @@
     </row>
     <row r="321" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>11</v>
@@ -13913,10 +13915,10 @@
     </row>
     <row r="322" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>11</v>
@@ -13925,7 +13927,7 @@
         <v>17</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F322" s="6" t="s">
         <v>140</v>
@@ -13940,10 +13942,10 @@
     </row>
     <row r="323" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>11</v>
@@ -13952,10 +13954,10 @@
         <v>47</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G323" s="9">
         <v>42942</v>
@@ -13967,10 +13969,10 @@
     </row>
     <row r="324" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>11</v>
@@ -13982,7 +13984,7 @@
         <v>43</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G324" s="9">
         <v>39332</v>
@@ -13994,10 +13996,10 @@
     </row>
     <row r="325" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>11</v>
@@ -14009,7 +14011,7 @@
         <v>43</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G325" s="9">
         <v>34604</v>
@@ -14021,10 +14023,10 @@
     </row>
     <row r="326" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>11</v>
@@ -14033,10 +14035,10 @@
         <v>29</v>
       </c>
       <c r="E326" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G326" s="9">
         <v>34486</v>
@@ -14050,10 +14052,10 @@
     </row>
     <row r="327" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>11</v>
@@ -14077,10 +14079,10 @@
     </row>
     <row r="328" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>11</v>
@@ -14089,10 +14091,10 @@
         <v>47</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F328" s="6" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G328" s="9">
         <v>41631</v>
@@ -14104,10 +14106,10 @@
     </row>
     <row r="329" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>11</v>
@@ -14116,7 +14118,7 @@
         <v>121</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F329" s="6" t="s">
         <v>202</v>
@@ -14131,10 +14133,10 @@
     </row>
     <row r="330" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>11</v>
@@ -14143,7 +14145,7 @@
         <v>121</v>
       </c>
       <c r="E330" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F330" s="6" t="s">
         <v>268</v>
@@ -14158,10 +14160,10 @@
     </row>
     <row r="331" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>11</v>
@@ -14170,10 +14172,10 @@
         <v>121</v>
       </c>
       <c r="E331" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G331" s="9">
         <v>41088</v>
@@ -14185,10 +14187,10 @@
     </row>
     <row r="332" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>11</v>
@@ -14197,7 +14199,7 @@
         <v>57</v>
       </c>
       <c r="E332" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F332" s="6" t="s">
         <v>144</v>
@@ -14212,10 +14214,10 @@
     </row>
     <row r="333" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>11</v>
@@ -14224,7 +14226,7 @@
         <v>57</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F333" s="6" t="s">
         <v>144</v>
@@ -14239,10 +14241,10 @@
     </row>
     <row r="334" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>11</v>
@@ -14251,10 +14253,10 @@
         <v>69</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F334" s="6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G334" s="9">
         <v>40812</v>
@@ -14266,10 +14268,10 @@
     </row>
     <row r="335" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>11</v>
@@ -14281,22 +14283,22 @@
         <v>224</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G335" s="8"/>
       <c r="H335" s="7">
         <v>68505</v>
       </c>
       <c r="I335" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>11</v>
@@ -14305,7 +14307,7 @@
         <v>57</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F336" s="6" t="s">
         <v>144</v>
@@ -14320,10 +14322,10 @@
     </row>
     <row r="337" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>11</v>
@@ -14335,7 +14337,7 @@
         <v>22</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G337" s="9">
         <v>38100</v>
@@ -14347,10 +14349,10 @@
     </row>
     <row r="338" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>11</v>
@@ -14359,7 +14361,7 @@
         <v>57</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F338" s="6" t="s">
         <v>144</v>
@@ -14374,10 +14376,10 @@
     </row>
     <row r="339" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>11</v>
@@ -14401,10 +14403,10 @@
     </row>
     <row r="340" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>11</v>
@@ -14416,7 +14418,7 @@
         <v>22</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G340" s="9">
         <v>43178</v>
@@ -14428,10 +14430,10 @@
     </row>
     <row r="341" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>11</v>
@@ -14440,7 +14442,7 @@
         <v>29</v>
       </c>
       <c r="E341" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F341" s="6" t="s">
         <v>44</v>
@@ -14455,10 +14457,10 @@
     </row>
     <row r="342" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>11</v>
@@ -14467,10 +14469,10 @@
         <v>34</v>
       </c>
       <c r="E342" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G342" s="9">
         <v>40532</v>
@@ -14484,10 +14486,10 @@
     </row>
     <row r="343" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>11</v>
@@ -14496,10 +14498,10 @@
         <v>47</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G343" s="9">
         <v>32628</v>
@@ -14511,10 +14513,10 @@
     </row>
     <row r="344" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>11</v>
@@ -14523,7 +14525,7 @@
         <v>69</v>
       </c>
       <c r="E344" s="7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F344" s="6" t="s">
         <v>202</v>
@@ -14540,10 +14542,10 @@
     </row>
     <row r="345" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>11</v>
@@ -14552,7 +14554,7 @@
         <v>34</v>
       </c>
       <c r="E345" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F345" s="6" t="s">
         <v>144</v>
@@ -14567,10 +14569,10 @@
     </row>
     <row r="346" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>11</v>
@@ -14579,7 +14581,7 @@
         <v>34</v>
       </c>
       <c r="E346" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F346" s="6" t="s">
         <v>144</v>
@@ -14594,10 +14596,10 @@
     </row>
     <row r="347" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>11</v>
@@ -14609,7 +14611,7 @@
         <v>133</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G347" s="9">
         <v>27941</v>
@@ -14621,10 +14623,10 @@
     </row>
     <row r="348" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>11</v>
@@ -14633,7 +14635,7 @@
         <v>12</v>
       </c>
       <c r="E348" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F348" s="6" t="s">
         <v>144</v>
@@ -14648,10 +14650,10 @@
     </row>
     <row r="349" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>11</v>
@@ -14660,10 +14662,10 @@
         <v>47</v>
       </c>
       <c r="E349" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G349" s="9">
         <v>32477</v>
@@ -14675,10 +14677,10 @@
     </row>
     <row r="350" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>11</v>
@@ -14690,7 +14692,7 @@
         <v>133</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G350" s="8"/>
       <c r="H350" s="7">
@@ -14702,10 +14704,10 @@
     </row>
     <row r="351" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>11</v>
@@ -14729,10 +14731,10 @@
     </row>
     <row r="352" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>11</v>
@@ -14741,7 +14743,7 @@
         <v>47</v>
       </c>
       <c r="E352" s="7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F352" s="6" t="s">
         <v>79</v>
@@ -14756,10 +14758,10 @@
     </row>
     <row r="353" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>11</v>
@@ -14768,25 +14770,25 @@
         <v>12</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F353" s="6" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G353" s="8"/>
       <c r="H353" s="7">
         <v>702165</v>
       </c>
       <c r="I353" s="7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>11</v>
@@ -14810,10 +14812,10 @@
     </row>
     <row r="355" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>11</v>
@@ -14825,7 +14827,7 @@
         <v>221</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G355" s="9">
         <v>31228</v>
@@ -14837,10 +14839,10 @@
     </row>
     <row r="356" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>11</v>
@@ -14849,10 +14851,10 @@
         <v>47</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G356" s="9">
         <v>43021</v>
@@ -14864,10 +14866,10 @@
     </row>
     <row r="357" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>11</v>
@@ -14879,7 +14881,7 @@
         <v>53</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G357" s="9">
         <v>40207</v>
@@ -14891,10 +14893,10 @@
     </row>
     <row r="358" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>11</v>
@@ -14903,7 +14905,7 @@
         <v>69</v>
       </c>
       <c r="E358" s="7" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F358" s="6" t="s">
         <v>83</v>
@@ -14918,10 +14920,10 @@
     </row>
     <row r="359" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>11</v>
@@ -14945,10 +14947,10 @@
     </row>
     <row r="360" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>11</v>
@@ -14960,7 +14962,7 @@
         <v>246</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G360" s="9">
         <v>39899</v>
@@ -14972,10 +14974,10 @@
     </row>
     <row r="361" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>11</v>
@@ -14999,10 +15001,10 @@
     </row>
     <row r="362" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>11</v>
@@ -15011,7 +15013,7 @@
         <v>34</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F362" s="6" t="s">
         <v>144</v>
@@ -15026,10 +15028,10 @@
     </row>
     <row r="363" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>11</v>
@@ -15038,10 +15040,10 @@
         <v>174</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G363" s="9">
         <v>40252</v>
@@ -15053,10 +15055,10 @@
     </row>
     <row r="364" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>11</v>
@@ -15068,7 +15070,7 @@
         <v>39</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G364" s="9">
         <v>32751</v>
@@ -15080,10 +15082,10 @@
     </row>
     <row r="365" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>11</v>
@@ -15092,10 +15094,10 @@
         <v>12</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G365" s="9">
         <v>29586</v>
@@ -15107,10 +15109,10 @@
     </row>
     <row r="366" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>11</v>
@@ -15122,7 +15124,7 @@
         <v>129</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G366" s="9">
         <v>42942</v>
@@ -15134,10 +15136,10 @@
     </row>
     <row r="367" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>11</v>
@@ -15146,10 +15148,10 @@
         <v>12</v>
       </c>
       <c r="E367" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G367" s="9">
         <v>31381</v>
@@ -15161,10 +15163,10 @@
     </row>
     <row r="368" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>11</v>
@@ -15173,10 +15175,10 @@
         <v>29</v>
       </c>
       <c r="E368" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G368" s="8"/>
       <c r="H368" s="7">
@@ -15188,10 +15190,10 @@
     </row>
     <row r="369" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>11</v>
@@ -15215,10 +15217,10 @@
     </row>
     <row r="370" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>11</v>
@@ -15227,10 +15229,10 @@
         <v>12</v>
       </c>
       <c r="E370" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G370" s="9">
         <v>41183</v>
@@ -15242,10 +15244,10 @@
     </row>
     <row r="371" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>11</v>
@@ -15254,10 +15256,10 @@
         <v>57</v>
       </c>
       <c r="E371" s="7" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G371" s="9">
         <v>39765</v>
@@ -15269,10 +15271,10 @@
     </row>
     <row r="372" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>11</v>
@@ -15281,10 +15283,10 @@
         <v>121</v>
       </c>
       <c r="E372" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G372" s="8"/>
       <c r="H372" s="7">
@@ -15296,10 +15298,10 @@
     </row>
     <row r="373" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>11</v>
@@ -15311,7 +15313,7 @@
         <v>18</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G373" s="9">
         <v>31198</v>
@@ -15323,10 +15325,10 @@
     </row>
     <row r="374" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>11</v>
@@ -15350,10 +15352,10 @@
     </row>
     <row r="375" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>11</v>
@@ -15377,10 +15379,10 @@
     </row>
     <row r="376" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>11</v>
@@ -15404,10 +15406,10 @@
     </row>
     <row r="377" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>11</v>
@@ -15416,7 +15418,7 @@
         <v>174</v>
       </c>
       <c r="E377" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F377" s="6" t="s">
         <v>198</v>
@@ -15431,10 +15433,10 @@
     </row>
     <row r="378" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>11</v>
@@ -15446,7 +15448,7 @@
         <v>133</v>
       </c>
       <c r="F378" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G378" s="8"/>
       <c r="H378" s="7">
@@ -15458,10 +15460,10 @@
     </row>
     <row r="379" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>11</v>
@@ -15473,7 +15475,7 @@
         <v>175</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G379" s="9">
         <v>39715</v>
@@ -15485,10 +15487,10 @@
     </row>
     <row r="380" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>11</v>
@@ -15500,7 +15502,7 @@
         <v>271</v>
       </c>
       <c r="F380" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G380" s="9">
         <v>32263</v>
@@ -15512,10 +15514,10 @@
     </row>
     <row r="381" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>11</v>
@@ -15527,7 +15529,7 @@
         <v>82</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G381" s="8"/>
       <c r="H381" s="7">
@@ -15539,10 +15541,10 @@
     </row>
     <row r="382" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>11</v>
@@ -15564,10 +15566,10 @@
     </row>
     <row r="383" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>11</v>
@@ -15579,7 +15581,7 @@
         <v>62</v>
       </c>
       <c r="F383" s="6" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G383" s="9">
         <v>37459</v>
@@ -15591,10 +15593,10 @@
     </row>
     <row r="384" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>11</v>
@@ -15603,10 +15605,10 @@
         <v>121</v>
       </c>
       <c r="E384" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G384" s="8"/>
       <c r="H384" s="7">
@@ -15618,10 +15620,10 @@
     </row>
     <row r="385" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>11</v>
@@ -15633,7 +15635,7 @@
         <v>111</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G385" s="9">
         <v>35646</v>
@@ -15645,10 +15647,10 @@
     </row>
     <row r="386" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>11</v>
@@ -15657,10 +15659,10 @@
         <v>86</v>
       </c>
       <c r="E386" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G386" s="9">
         <v>37819</v>
@@ -15672,10 +15674,10 @@
     </row>
     <row r="387" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>11</v>
@@ -15687,7 +15689,7 @@
         <v>62</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G387" s="9">
         <v>37459</v>
@@ -15699,10 +15701,10 @@
     </row>
     <row r="388" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>11</v>
@@ -15714,7 +15716,7 @@
         <v>107</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G388" s="8"/>
       <c r="H388" s="7">
@@ -15724,10 +15726,10 @@
     </row>
     <row r="389" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>11</v>
@@ -15751,10 +15753,10 @@
     </row>
     <row r="390" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>11</v>
@@ -15763,10 +15765,10 @@
         <v>47</v>
       </c>
       <c r="E390" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G390" s="9">
         <v>30802</v>
@@ -15778,10 +15780,10 @@
     </row>
     <row r="391" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>11</v>
@@ -15790,7 +15792,7 @@
         <v>47</v>
       </c>
       <c r="E391" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F391" s="6" t="s">
         <v>144</v>
@@ -15805,10 +15807,10 @@
     </row>
     <row r="392" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>11</v>
@@ -15820,7 +15822,7 @@
         <v>43</v>
       </c>
       <c r="F392" s="6" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G392" s="9">
         <v>42166</v>
@@ -15832,10 +15834,10 @@
     </row>
     <row r="393" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>11</v>
@@ -15844,7 +15846,7 @@
         <v>12</v>
       </c>
       <c r="E393" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F393" s="6" t="s">
         <v>198</v>
@@ -15859,10 +15861,10 @@
     </row>
     <row r="394" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>11</v>
@@ -15874,7 +15876,7 @@
         <v>43</v>
       </c>
       <c r="F394" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G394" s="8"/>
       <c r="H394" s="7">
@@ -15886,10 +15888,10 @@
     </row>
     <row r="395" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>11</v>
@@ -15898,10 +15900,10 @@
         <v>17</v>
       </c>
       <c r="E395" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G395" s="9">
         <v>37602</v>
@@ -15913,10 +15915,10 @@
     </row>
     <row r="396" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>11</v>
@@ -15925,7 +15927,7 @@
         <v>47</v>
       </c>
       <c r="E396" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F396" s="6" t="s">
         <v>144</v>
@@ -15940,10 +15942,10 @@
     </row>
     <row r="397" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>11</v>
@@ -15952,10 +15954,10 @@
         <v>57</v>
       </c>
       <c r="E397" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G397" s="9">
         <v>42814</v>
@@ -15967,10 +15969,10 @@
     </row>
     <row r="398" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>11</v>
@@ -15982,7 +15984,7 @@
         <v>221</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G398" s="8"/>
       <c r="H398" s="7">
@@ -15994,10 +15996,10 @@
     </row>
     <row r="399" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>11</v>
@@ -16006,10 +16008,10 @@
         <v>86</v>
       </c>
       <c r="E399" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G399" s="9">
         <v>42101</v>
@@ -16021,10 +16023,10 @@
     </row>
     <row r="400" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C400" s="6" t="s">
         <v>11</v>
@@ -16033,7 +16035,7 @@
         <v>29</v>
       </c>
       <c r="E400" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>49</v>
@@ -16048,10 +16050,10 @@
     </row>
     <row r="401" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>11</v>
@@ -16060,10 +16062,10 @@
         <v>86</v>
       </c>
       <c r="E401" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G401" s="9">
         <v>42796</v>
@@ -16075,10 +16077,10 @@
     </row>
     <row r="402" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>11</v>
@@ -16090,7 +16092,7 @@
         <v>91</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G402" s="9">
         <v>41395</v>
@@ -16102,10 +16104,10 @@
     </row>
     <row r="403" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>11</v>
@@ -16117,7 +16119,7 @@
         <v>271</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G403" s="9">
         <v>36035</v>
@@ -16129,10 +16131,10 @@
     </row>
     <row r="404" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>11</v>
@@ -16141,10 +16143,10 @@
         <v>12</v>
       </c>
       <c r="E404" s="7" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G404" s="9">
         <v>39787</v>
@@ -16156,10 +16158,10 @@
     </row>
     <row r="405" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>11</v>
@@ -16171,7 +16173,7 @@
         <v>18</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G405" s="9">
         <v>42942</v>
@@ -16183,10 +16185,10 @@
     </row>
     <row r="406" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>11</v>
@@ -16195,10 +16197,10 @@
         <v>12</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G406" s="9">
         <v>36865</v>
@@ -16210,10 +16212,10 @@
     </row>
     <row r="407" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>11</v>
@@ -16235,10 +16237,10 @@
     </row>
     <row r="408" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C408" s="6" t="s">
         <v>11</v>
@@ -16247,10 +16249,10 @@
         <v>12</v>
       </c>
       <c r="E408" s="7" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F408" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G408" s="9">
         <v>43374</v>
@@ -16262,10 +16264,10 @@
     </row>
     <row r="409" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>11</v>
@@ -16277,7 +16279,7 @@
         <v>13</v>
       </c>
       <c r="F409" s="6" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G409" s="9">
         <v>40170</v>
@@ -16289,10 +16291,10 @@
     </row>
     <row r="410" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>11</v>
@@ -16301,10 +16303,10 @@
         <v>47</v>
       </c>
       <c r="E410" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G410" s="9">
         <v>40168</v>
@@ -16316,10 +16318,10 @@
     </row>
     <row r="411" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>11</v>
@@ -16328,10 +16330,10 @@
         <v>47</v>
       </c>
       <c r="E411" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F411" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G411" s="9">
         <v>41978</v>
@@ -16343,10 +16345,10 @@
     </row>
     <row r="412" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>11</v>
@@ -16355,10 +16357,10 @@
         <v>29</v>
       </c>
       <c r="E412" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F412" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G412" s="9">
         <v>39706</v>
@@ -16370,10 +16372,10 @@
     </row>
     <row r="413" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>11</v>
@@ -16385,7 +16387,7 @@
         <v>149</v>
       </c>
       <c r="F413" s="6" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G413" s="9">
         <v>42979</v>
@@ -16397,10 +16399,10 @@
     </row>
     <row r="414" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>11</v>
@@ -16412,7 +16414,7 @@
         <v>256</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G414" s="9">
         <v>23832</v>
@@ -16426,10 +16428,10 @@
     </row>
     <row r="415" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>11</v>
@@ -16453,10 +16455,10 @@
     </row>
     <row r="416" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>11</v>
@@ -16468,7 +16470,7 @@
         <v>129</v>
       </c>
       <c r="F416" s="6" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G416" s="8"/>
       <c r="H416" s="7">
@@ -16478,10 +16480,10 @@
     </row>
     <row r="417" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>11</v>
@@ -16493,7 +16495,7 @@
         <v>133</v>
       </c>
       <c r="F417" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G417" s="8"/>
       <c r="H417" s="7">
@@ -16503,10 +16505,10 @@
     </row>
     <row r="418" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>11</v>
@@ -16518,7 +16520,7 @@
         <v>82</v>
       </c>
       <c r="F418" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G418" s="9">
         <v>23558</v>
@@ -16532,10 +16534,10 @@
     </row>
     <row r="419" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>11</v>
@@ -16544,7 +16546,7 @@
         <v>86</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F419" s="6" t="s">
         <v>186</v>
@@ -16559,10 +16561,10 @@
     </row>
     <row r="420" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>11</v>
@@ -16574,7 +16576,7 @@
         <v>43</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G420" s="9">
         <v>42075</v>
@@ -16586,10 +16588,10 @@
     </row>
     <row r="421" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>11</v>
@@ -16613,10 +16615,10 @@
     </row>
     <row r="422" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>11</v>
@@ -16625,10 +16627,10 @@
         <v>12</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F422" s="6" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G422" s="9">
         <v>30224</v>
@@ -16640,10 +16642,10 @@
     </row>
     <row r="423" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>11</v>
@@ -16655,7 +16657,7 @@
         <v>107</v>
       </c>
       <c r="F423" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G423" s="8"/>
       <c r="H423" s="7">
@@ -16665,10 +16667,10 @@
     </row>
     <row r="424" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>11</v>
@@ -16692,10 +16694,10 @@
     </row>
     <row r="425" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>11</v>
@@ -16704,7 +16706,7 @@
         <v>57</v>
       </c>
       <c r="E425" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F425" s="6" t="s">
         <v>144</v>
@@ -16717,10 +16719,10 @@
     </row>
     <row r="426" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>11</v>
@@ -16729,10 +16731,10 @@
         <v>12</v>
       </c>
       <c r="E426" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F426" s="6" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="G426" s="9">
         <v>30224</v>
@@ -16744,10 +16746,10 @@
     </row>
     <row r="427" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>11</v>
@@ -16756,7 +16758,7 @@
         <v>47</v>
       </c>
       <c r="E427" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F427" s="6" t="s">
         <v>79</v>
@@ -16771,10 +16773,10 @@
     </row>
     <row r="428" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>11</v>
@@ -16796,10 +16798,10 @@
     </row>
     <row r="429" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>11</v>
@@ -16811,7 +16813,7 @@
         <v>18</v>
       </c>
       <c r="F429" s="6" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G429" s="9">
         <v>36872</v>
@@ -16823,10 +16825,10 @@
     </row>
     <row r="430" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>11</v>
@@ -16838,7 +16840,7 @@
         <v>271</v>
       </c>
       <c r="F430" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G430" s="9">
         <v>32294</v>
@@ -16850,10 +16852,10 @@
     </row>
     <row r="431" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>11</v>
@@ -16877,10 +16879,10 @@
     </row>
     <row r="432" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>11</v>
@@ -16904,10 +16906,10 @@
     </row>
     <row r="433" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>11</v>
@@ -16919,7 +16921,7 @@
         <v>143</v>
       </c>
       <c r="F433" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G433" s="9">
         <v>42326</v>
@@ -16931,10 +16933,10 @@
     </row>
     <row r="434" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>11</v>
@@ -16958,10 +16960,10 @@
     </row>
     <row r="435" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>11</v>
@@ -16970,7 +16972,7 @@
         <v>121</v>
       </c>
       <c r="E435" s="7" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F435" s="6" t="s">
         <v>198</v>
@@ -16985,10 +16987,10 @@
     </row>
     <row r="436" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>11</v>
@@ -17000,7 +17002,7 @@
         <v>58</v>
       </c>
       <c r="F436" s="6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G436" s="8"/>
       <c r="H436" s="7">
@@ -17012,10 +17014,10 @@
     </row>
     <row r="437" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>11</v>
@@ -17039,10 +17041,10 @@
     </row>
     <row r="438" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>11</v>
@@ -17051,7 +17053,7 @@
         <v>47</v>
       </c>
       <c r="E438" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F438" s="6" t="s">
         <v>144</v>
@@ -17066,10 +17068,10 @@
     </row>
     <row r="439" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>11</v>
@@ -17078,7 +17080,7 @@
         <v>47</v>
       </c>
       <c r="E439" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F439" s="6" t="s">
         <v>156</v>
@@ -17093,10 +17095,10 @@
     </row>
     <row r="440" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>11</v>
@@ -17105,10 +17107,10 @@
         <v>29</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G440" s="9">
         <v>40833</v>
@@ -17120,10 +17122,10 @@
     </row>
     <row r="441" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>11</v>
@@ -17147,10 +17149,10 @@
     </row>
     <row r="442" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>11</v>
@@ -17162,7 +17164,7 @@
         <v>18</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G442" s="9">
         <v>43483</v>
@@ -17176,10 +17178,10 @@
     </row>
     <row r="443" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>11</v>
@@ -17203,10 +17205,10 @@
     </row>
     <row r="444" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>11</v>
@@ -17218,7 +17220,7 @@
         <v>221</v>
       </c>
       <c r="F444" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G444" s="9">
         <v>28855</v>
@@ -17230,10 +17232,10 @@
     </row>
     <row r="445" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>11</v>
@@ -17245,7 +17247,7 @@
         <v>18</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G445" s="8"/>
       <c r="H445" s="7">
@@ -17257,10 +17259,10 @@
     </row>
     <row r="446" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>11</v>
@@ -17269,7 +17271,7 @@
         <v>47</v>
       </c>
       <c r="E446" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F446" s="6" t="s">
         <v>144</v>
@@ -17284,10 +17286,10 @@
     </row>
     <row r="447" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>11</v>
@@ -17299,7 +17301,7 @@
         <v>115</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G447" s="9">
         <v>43258</v>
@@ -17311,10 +17313,10 @@
     </row>
     <row r="448" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>11</v>
@@ -17323,10 +17325,10 @@
         <v>47</v>
       </c>
       <c r="E448" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G448" s="9">
         <v>31320</v>
@@ -17338,10 +17340,10 @@
     </row>
     <row r="449" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>11</v>
@@ -17353,7 +17355,7 @@
         <v>62</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G449" s="9">
         <v>32628</v>
@@ -17365,10 +17367,10 @@
     </row>
     <row r="450" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>11</v>
@@ -17377,7 +17379,7 @@
         <v>29</v>
       </c>
       <c r="E450" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F450" s="6" t="s">
         <v>63</v>
@@ -17392,10 +17394,10 @@
     </row>
     <row r="451" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>11</v>
@@ -17407,7 +17409,7 @@
         <v>246</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G451" s="9">
         <v>41663</v>
@@ -17419,10 +17421,10 @@
     </row>
     <row r="452" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>11</v>
@@ -17434,7 +17436,7 @@
         <v>221</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G452" s="9">
         <v>42524</v>
@@ -17446,10 +17448,10 @@
     </row>
     <row r="453" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>11</v>
@@ -17473,10 +17475,10 @@
     </row>
     <row r="454" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>11</v>
@@ -17488,7 +17490,7 @@
         <v>115</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G454" s="9">
         <v>40898</v>
@@ -17500,10 +17502,10 @@
     </row>
     <row r="455" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>11</v>
@@ -17512,10 +17514,10 @@
         <v>121</v>
       </c>
       <c r="E455" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G455" s="8"/>
       <c r="H455" s="7">
@@ -17525,10 +17527,10 @@
     </row>
     <row r="456" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>11</v>
@@ -17540,7 +17542,7 @@
         <v>201</v>
       </c>
       <c r="F456" s="6" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="G456" s="9">
         <v>42436</v>
@@ -17552,10 +17554,10 @@
     </row>
     <row r="457" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>11</v>
@@ -17567,7 +17569,7 @@
         <v>246</v>
       </c>
       <c r="F457" s="6" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G457" s="9">
         <v>42478</v>
@@ -17579,10 +17581,10 @@
     </row>
     <row r="458" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>11</v>
@@ -17606,10 +17608,10 @@
     </row>
     <row r="459" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>11</v>
@@ -17618,10 +17620,10 @@
         <v>47</v>
       </c>
       <c r="E459" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F459" s="6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G459" s="9">
         <v>42454</v>
@@ -17633,10 +17635,10 @@
     </row>
     <row r="460" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>11</v>
@@ -17645,10 +17647,10 @@
         <v>47</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G460" s="9">
         <v>41760</v>
@@ -17660,10 +17662,10 @@
     </row>
     <row r="461" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>11</v>
@@ -17672,10 +17674,10 @@
         <v>12</v>
       </c>
       <c r="E461" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F461" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G461" s="8"/>
       <c r="H461" s="7">
@@ -17685,10 +17687,10 @@
     </row>
     <row r="462" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>11</v>
@@ -17712,10 +17714,10 @@
     </row>
     <row r="463" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>11</v>
@@ -17727,7 +17729,7 @@
         <v>185</v>
       </c>
       <c r="F463" s="6" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="G463" s="9">
         <v>34516</v>
@@ -17739,10 +17741,10 @@
     </row>
     <row r="464" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>11</v>
@@ -17751,10 +17753,10 @@
         <v>12</v>
       </c>
       <c r="E464" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F464" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G464" s="9">
         <v>37459</v>
@@ -17766,10 +17768,10 @@
     </row>
     <row r="465" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>11</v>
@@ -17778,10 +17780,10 @@
         <v>12</v>
       </c>
       <c r="E465" s="7" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F465" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G465" s="9">
         <v>41902</v>
@@ -17793,10 +17795,10 @@
     </row>
     <row r="466" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>11</v>
@@ -17808,7 +17810,7 @@
         <v>221</v>
       </c>
       <c r="F466" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G466" s="8"/>
       <c r="H466" s="7">
@@ -17818,10 +17820,10 @@
     </row>
     <row r="467" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>11</v>
@@ -17830,10 +17832,10 @@
         <v>17</v>
       </c>
       <c r="E467" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="G467" s="9">
         <v>41902</v>
@@ -17845,10 +17847,10 @@
     </row>
     <row r="468" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>11</v>
@@ -17860,7 +17862,7 @@
         <v>62</v>
       </c>
       <c r="F468" s="6" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G468" s="9">
         <v>34394</v>
@@ -17872,10 +17874,10 @@
     </row>
     <row r="469" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>11</v>
@@ -17884,10 +17886,10 @@
         <v>47</v>
       </c>
       <c r="E469" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F469" s="6" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G469" s="9">
         <v>29036</v>
@@ -17899,10 +17901,10 @@
     </row>
     <row r="470" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C470" s="6" t="s">
         <v>11</v>
@@ -17911,10 +17913,10 @@
         <v>174</v>
       </c>
       <c r="E470" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F470" s="6" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G470" s="8"/>
       <c r="H470" s="7">
@@ -17926,10 +17928,10 @@
     </row>
     <row r="471" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C471" s="6" t="s">
         <v>11</v>
@@ -17941,7 +17943,7 @@
         <v>18</v>
       </c>
       <c r="F471" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G471" s="9">
         <v>39125</v>
@@ -17953,10 +17955,10 @@
     </row>
     <row r="472" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>11</v>
@@ -17965,7 +17967,7 @@
         <v>86</v>
       </c>
       <c r="E472" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F472" s="6" t="s">
         <v>218</v>
@@ -17980,10 +17982,10 @@
     </row>
     <row r="473" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>11</v>
@@ -17995,7 +17997,7 @@
         <v>74</v>
       </c>
       <c r="F473" s="6" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G473" s="9">
         <v>38749</v>
@@ -18007,10 +18009,10 @@
     </row>
     <row r="474" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>11</v>
@@ -18019,10 +18021,10 @@
         <v>12</v>
       </c>
       <c r="E474" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G474" s="9">
         <v>42285</v>
@@ -18034,10 +18036,10 @@
     </row>
     <row r="475" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>11</v>
@@ -18061,10 +18063,10 @@
     </row>
     <row r="476" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>11</v>
@@ -18088,10 +18090,10 @@
     </row>
     <row r="477" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>11</v>
@@ -18100,7 +18102,7 @@
         <v>34</v>
       </c>
       <c r="E477" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F477" s="6" t="s">
         <v>144</v>
@@ -18113,10 +18115,10 @@
     </row>
     <row r="478" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>11</v>
@@ -18125,10 +18127,10 @@
         <v>29</v>
       </c>
       <c r="E478" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G478" s="9">
         <v>40168</v>
@@ -18140,10 +18142,10 @@
     </row>
     <row r="479" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>11</v>
@@ -18165,10 +18167,10 @@
     </row>
     <row r="480" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>11</v>
@@ -18177,10 +18179,10 @@
         <v>69</v>
       </c>
       <c r="E480" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G480" s="9">
         <v>36341</v>
@@ -18192,10 +18194,10 @@
     </row>
     <row r="481" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>11</v>
@@ -18204,10 +18206,10 @@
         <v>12</v>
       </c>
       <c r="E481" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G481" s="9">
         <v>43523</v>
@@ -18219,10 +18221,10 @@
     </row>
     <row r="482" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C482" s="6" t="s">
         <v>11</v>
@@ -18231,10 +18233,10 @@
         <v>121</v>
       </c>
       <c r="E482" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G482" s="9">
         <v>30194</v>
@@ -18246,10 +18248,10 @@
     </row>
     <row r="483" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C483" s="6" t="s">
         <v>11</v>
@@ -18258,7 +18260,7 @@
         <v>121</v>
       </c>
       <c r="E483" s="7" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F483" s="6" t="s">
         <v>268</v>
@@ -18273,10 +18275,10 @@
     </row>
     <row r="484" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C484" s="6" t="s">
         <v>11</v>
@@ -18285,10 +18287,10 @@
         <v>34</v>
       </c>
       <c r="E484" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G484" s="9">
         <v>27941</v>
@@ -18300,10 +18302,10 @@
     </row>
     <row r="485" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C485" s="6" t="s">
         <v>11</v>
@@ -18312,7 +18314,7 @@
         <v>12</v>
       </c>
       <c r="E485" s="7" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F485" s="6" t="s">
         <v>198</v>
@@ -18327,10 +18329,10 @@
     </row>
     <row r="486" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C486" s="6" t="s">
         <v>11</v>
@@ -18342,7 +18344,7 @@
         <v>159</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G486" s="8"/>
       <c r="H486" s="7">
@@ -18354,10 +18356,10 @@
     </row>
     <row r="487" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C487" s="6" t="s">
         <v>11</v>
@@ -18381,10 +18383,10 @@
     </row>
     <row r="488" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C488" s="6" t="s">
         <v>11</v>
@@ -18396,7 +18398,7 @@
         <v>185</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G488" s="7">
         <v>1985</v>
@@ -18408,10 +18410,10 @@
     </row>
     <row r="489" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C489" s="6" t="s">
         <v>11</v>
@@ -18423,7 +18425,7 @@
         <v>263</v>
       </c>
       <c r="F489" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G489" s="9">
         <v>27941</v>
@@ -18435,10 +18437,10 @@
     </row>
     <row r="490" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C490" s="6" t="s">
         <v>11</v>
@@ -18447,10 +18449,10 @@
         <v>86</v>
       </c>
       <c r="E490" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G490" s="9">
         <v>39843</v>
@@ -18462,10 +18464,10 @@
     </row>
     <row r="491" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C491" s="6" t="s">
         <v>11</v>
@@ -18477,7 +18479,7 @@
         <v>206</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G491" s="9">
         <v>39995</v>
@@ -18489,10 +18491,10 @@
     </row>
     <row r="492" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C492" s="6" t="s">
         <v>11</v>
@@ -18501,10 +18503,10 @@
         <v>29</v>
       </c>
       <c r="E492" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="G492" s="8"/>
       <c r="H492" s="7">
@@ -18516,10 +18518,10 @@
     </row>
     <row r="493" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C493" s="6" t="s">
         <v>11</v>
@@ -18541,10 +18543,10 @@
     </row>
     <row r="494" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C494" s="6" t="s">
         <v>11</v>
@@ -18553,10 +18555,10 @@
         <v>86</v>
       </c>
       <c r="E494" s="7" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G494" s="8"/>
       <c r="H494" s="7">
@@ -18566,10 +18568,10 @@
     </row>
     <row r="495" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C495" s="6" t="s">
         <v>11</v>
@@ -18578,10 +18580,10 @@
         <v>47</v>
       </c>
       <c r="E495" s="7" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G495" s="8"/>
       <c r="H495" s="7">
@@ -18593,10 +18595,10 @@
     </row>
     <row r="496" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C496" s="6" t="s">
         <v>11</v>
@@ -18605,10 +18607,10 @@
         <v>174</v>
       </c>
       <c r="E496" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F496" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G496" s="9">
         <v>27484</v>
@@ -18620,10 +18622,10 @@
     </row>
     <row r="497" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C497" s="6" t="s">
         <v>11</v>
@@ -18635,7 +18637,7 @@
         <v>190</v>
       </c>
       <c r="F497" s="6" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G497" s="9">
         <v>42374</v>
@@ -18647,10 +18649,10 @@
     </row>
     <row r="498" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C498" s="6" t="s">
         <v>11</v>
@@ -18659,10 +18661,10 @@
         <v>47</v>
       </c>
       <c r="E498" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F498" s="6" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G498" s="9">
         <v>39766</v>
@@ -18674,10 +18676,10 @@
     </row>
     <row r="499" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C499" s="6" t="s">
         <v>11</v>
@@ -18701,10 +18703,10 @@
     </row>
     <row r="500" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C500" s="6" t="s">
         <v>11</v>
@@ -18716,7 +18718,7 @@
         <v>206</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G500" s="8"/>
       <c r="H500" s="7">
@@ -18728,10 +18730,10 @@
     </row>
     <row r="501" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C501" s="6" t="s">
         <v>11</v>
@@ -18755,10 +18757,10 @@
     </row>
     <row r="502" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C502" s="6" t="s">
         <v>11</v>
@@ -18767,10 +18769,10 @@
         <v>12</v>
       </c>
       <c r="E502" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="G502" s="9">
         <v>40848</v>
@@ -18782,10 +18784,10 @@
     </row>
     <row r="503" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C503" s="6" t="s">
         <v>11</v>
@@ -18794,10 +18796,10 @@
         <v>47</v>
       </c>
       <c r="E503" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G503" s="9">
         <v>35709</v>
@@ -18809,10 +18811,10 @@
     </row>
     <row r="504" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C504" s="6" t="s">
         <v>11</v>
@@ -18824,7 +18826,7 @@
         <v>18</v>
       </c>
       <c r="F504" s="6" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G504" s="9">
         <v>37110</v>
@@ -18836,10 +18838,10 @@
     </row>
     <row r="505" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C505" s="6" t="s">
         <v>11</v>
@@ -18851,7 +18853,7 @@
         <v>271</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G505" s="9">
         <v>37064</v>
@@ -18863,10 +18865,10 @@
     </row>
     <row r="506" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C506" s="6" t="s">
         <v>11</v>
@@ -18878,7 +18880,7 @@
         <v>22</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G506" s="11">
         <v>41446</v>
